--- a/hebrewOutputs/hebrewComparison_2.xlsx
+++ b/hebrewOutputs/hebrewComparison_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="127">
   <si>
     <t>Sentence</t>
   </si>
@@ -88,105 +88,111 @@
     <t>gives-other</t>
   </si>
   <si>
+    <t>?med</t>
+  </si>
+  <si>
     <t xml:space="preserve">כל הבחילות האלה שהוא מרגיש ועייפות והתשישות הזאתי </t>
   </si>
   <si>
+    <t>זה הרגיש כזה שזה משהו לא יודעת ... יש לו גם ילדים בכיתה שהם גם באותו.</t>
+  </si>
+  <si>
+    <t>אבל זה לא לאחרונה.</t>
+  </si>
+  <si>
+    <t>אם זה לא לאחרונה?</t>
+  </si>
+  <si>
+    <t>כן זה משהו שהוא במשך כמה חודשים,</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>זה כן כלומר במשך כמה חודשים שהוא לא מרגיש טוב.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא זה ממש החמיר עכשיו בימים האחרונים זה לא היה, זה לא היה כזה בחודשים האלה </t>
+  </si>
+  <si>
+    <t>לי זה הרגיש שהוא חטף איזשהו וירוס.</t>
+  </si>
+  <si>
+    <t>אה עשינו כמה בדיקות כי חשבנו שאולי זה ויראלי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> לא ידעתי בדיוק לאיזה כיוון .עשינו כמה בדיקות ...</t>
+  </si>
+  <si>
+    <t>ומתברר שזה סכרת, סכרת נעורים.</t>
+  </si>
+  <si>
+    <t>ליואב?</t>
+  </si>
+  <si>
+    <t>ליואב סכרת?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כן לפי הבדיקות ש שעשינו הוא נכון לעכשיו זה לא וירוס כלומר אפשר לשלול וירוס אהמ </t>
+  </si>
+  <si>
+    <t>לשמחתנו זה גם לא משהו אה יותר אה אה בוא נגיד אה.</t>
+  </si>
+  <si>
+    <t>r/o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(לא נשמע) זאת אומרת זה משהו שהוא בוודאות במאה אחוז הוא נקבע זהו. </t>
+  </si>
+  <si>
+    <t>אה כן.</t>
+  </si>
+  <si>
+    <t>מהבדיקות?</t>
+  </si>
+  <si>
+    <t>?bid</t>
+  </si>
+  <si>
+    <t>כן קיבלנו את הבדיקות, בדיקות דם.</t>
+  </si>
+  <si>
+    <t>משהו נבדק על ידי רופאים כבר וגם משהו מעלייך,</t>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t>שעבר שבדק.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כן התייעצנו גם במרפאה של סכרת נעורים ושלחנו את זה ל להמטולוג זה, </t>
+  </si>
+  <si>
+    <t>זה החשש המרכזי כרגע לשם אנחנו חותרים לטפל  לכיוון הזה אנחנו מנסים ללכת.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">איך יכול להיות שיש לו סכרת </t>
+  </si>
+  <si>
+    <t xml:space="preserve">כי אין לנו סכרת במשפחה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוא לגמרי ילד רגיל כל הזמן איך </t>
+  </si>
+  <si>
+    <t>אני לא, אין לנו אף אחד במשפחה שיש לו סכרת.</t>
+  </si>
+  <si>
+    <t>אה כן יש, יש מקרים שזה, שזה מגיע האוט אוף דה בלו אה.</t>
+  </si>
+  <si>
+    <t>לילד בן חמש?</t>
+  </si>
+  <si>
     <t>concern</t>
   </si>
   <si>
-    <t>זה הרגיש כזה שזה משהו לא יודעת ... יש לו גם ילדים בכיתה שהם גם באותו.</t>
-  </si>
-  <si>
-    <t>אבל זה לא לאחרונה.</t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>אם זה לא לאחרונה?</t>
-  </si>
-  <si>
-    <t>כן זה משהו שהוא במשך כמה חודשים,</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t>זה כן כלומר במשך כמה חודשים שהוא לא מרגיש טוב.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא זה ממש החמיר עכשיו בימים האחרונים זה לא היה, זה לא היה כזה בחודשים האלה </t>
-  </si>
-  <si>
-    <t>לי זה הרגיש שהוא חטף איזשהו וירוס.</t>
-  </si>
-  <si>
-    <t>אה עשינו כמה בדיקות כי חשבנו שאולי זה ויראלי.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> לא ידעתי בדיוק לאיזה כיוון .עשינו כמה בדיקות ...</t>
-  </si>
-  <si>
-    <t>ומתברר שזה סכרת, סכרת נעורים.</t>
-  </si>
-  <si>
-    <t>ליואב?</t>
-  </si>
-  <si>
-    <t>ליואב סכרת?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כן לפי הבדיקות ש שעשינו הוא נכון לעכשיו זה לא וירוס כלומר אפשר לשלול וירוס אהמ </t>
-  </si>
-  <si>
-    <t>לשמחתנו זה גם לא משהו אה יותר אה אה בוא נגיד אה.</t>
-  </si>
-  <si>
-    <t>r/o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(לא נשמע) זאת אומרת זה משהו שהוא בוודאות במאה אחוז הוא נקבע זהו. </t>
-  </si>
-  <si>
-    <t>אה כן.</t>
-  </si>
-  <si>
-    <t>מהבדיקות?</t>
-  </si>
-  <si>
-    <t>כן קיבלנו את הבדיקות, בדיקות דם.</t>
-  </si>
-  <si>
-    <t>משהו נבדק על ידי רופאים כבר וגם משהו מעלייך,</t>
-  </si>
-  <si>
-    <t>שעבר שבדק.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כן התייעצנו גם במרפאה של סכרת נעורים ושלחנו את זה ל להמטולוג זה, </t>
-  </si>
-  <si>
-    <t>זה החשש המרכזי כרגע לשם אנחנו חותרים לטפל  לכיוון הזה אנחנו מנסים ללכת.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">איך יכול להיות שיש לו סכרת </t>
-  </si>
-  <si>
-    <t xml:space="preserve">כי אין לנו סכרת במשפחה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">הוא לגמרי ילד רגיל כל הזמן איך </t>
-  </si>
-  <si>
-    <t>אני לא, אין לנו אף אחד במשפחה שיש לו סכרת.</t>
-  </si>
-  <si>
-    <t>אה כן יש, יש מקרים שזה, שזה מגיע האוט אוף דה בלו אה.</t>
-  </si>
-  <si>
-    <t>לילד בן חמש?</t>
-  </si>
-  <si>
     <t xml:space="preserve">כן, כן זה זאת מחלה לצערי אוטואימונית ש ש הגוף בעצם מע מערכת </t>
   </si>
   <si>
@@ -226,76 +232,76 @@
     <t>כמה זה במאה אחוז ה יכול להיות שיש פה טעות.</t>
   </si>
   <si>
-    <t>disagree</t>
-  </si>
-  <si>
     <t xml:space="preserve">אה לא זה וודאי, זה וודאי </t>
   </si>
   <si>
     <t xml:space="preserve">אם את רוצה להיות שקטה בתור אימא אני אומרת לך את זה הייתי הולכת לשמוע עוד דעה או, או מ מ ממשהו מומחה לא יודעת מרפאת סכרת </t>
   </si>
   <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>אה אבל כן לצערי זה, זה אבל תראי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה מחלה אוטואימונית </t>
+  </si>
+  <si>
+    <t>לא יודעים.</t>
+  </si>
+  <si>
+    <t>מה שאת אומרת, משהו שעשינו עם התזונה, שלו שהיא לא תקנית.</t>
+  </si>
+  <si>
+    <t>gives-l/s</t>
+  </si>
+  <si>
+    <t>לא.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא, לא, לא זה שום דבר שקשור אליכם </t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה שום דבר שאתם עשיתם </t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה שום דבר שהוא עשה </t>
+  </si>
+  <si>
+    <t>זה לא משהו ש שאפשר למנוע</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> זה מחלה אוטואימונית שהגוף בעצם תוקף את התאים בלבלב ואין ייצור של אינסולין </t>
+  </si>
+  <si>
+    <t>ולמעשה אפשר, אפשר לטפל בזה בעזרת אינסולין שמוריד את הסוכר את הרמות של הסוכר.</t>
+  </si>
+  <si>
+    <t>gives-thera</t>
+  </si>
+  <si>
+    <t>כן אני יודעת (לא נשמע).</t>
+  </si>
+  <si>
+    <t>הרמות של הסוכר (לא נשמע).</t>
+  </si>
+  <si>
+    <t>(לא נשמע) מעכשיו והלאה הזרקות,</t>
+  </si>
+  <si>
+    <t>שהוא יהיה חייב לעשות יום יום.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אה כן נכון, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">למדוד את הסוכר ולהזריק אינסולין </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אה מה שכן אפשר לנסות זה אולי שינוי תזונתי לכיוון של אה רפואה יותר רפואה משלימה  </t>
+  </si>
+  <si>
     <t>c-l/s-p/s</t>
-  </si>
-  <si>
-    <t>אה אבל כן לצערי זה, זה אבל תראי.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">זה מחלה אוטואימונית </t>
-  </si>
-  <si>
-    <t>לא יודעים.</t>
-  </si>
-  <si>
-    <t>מה שאת אומרת, משהו שעשינו עם התזונה, שלו שהיא לא תקנית.</t>
-  </si>
-  <si>
-    <t>gives-l/s</t>
-  </si>
-  <si>
-    <t>לא.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא, לא, לא זה שום דבר שקשור אליכם </t>
-  </si>
-  <si>
-    <t xml:space="preserve">זה שום דבר שאתם עשיתם </t>
-  </si>
-  <si>
-    <t xml:space="preserve">זה שום דבר שהוא עשה </t>
-  </si>
-  <si>
-    <t>זה לא משהו ש שאפשר למנוע</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> זה מחלה אוטואימונית שהגוף בעצם תוקף את התאים בלבלב ואין ייצור של אינסולין </t>
-  </si>
-  <si>
-    <t>ולמעשה אפשר, אפשר לטפל בזה בעזרת אינסולין שמוריד את הסוכר את הרמות של הסוכר.</t>
-  </si>
-  <si>
-    <t>gives-thera</t>
-  </si>
-  <si>
-    <t>כן אני יודעת (לא נשמע).</t>
-  </si>
-  <si>
-    <t>הרמות של הסוכר (לא נשמע).</t>
-  </si>
-  <si>
-    <t>(לא נשמע) מעכשיו והלאה הזרקות,</t>
-  </si>
-  <si>
-    <t>שהוא יהיה חייב לעשות יום יום.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אה כן נכון, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">למדוד את הסוכר ולהזריק אינסולין </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אה מה שכן אפשר לנסות זה אולי שינוי תזונתי לכיוון של אה רפואה יותר רפואה משלימה  </t>
   </si>
   <si>
     <t>אולי לבדוק אם יש עוד אופציות שאפשר לטפל  שאולי להוריד כל מיני, כל מיני מאכלים תזונה טבעונית משהו כיוונים אחרים גם שהם לא ברפואה המערבית שאנחנו יכולים לספק</t>
@@ -888,18 +894,18 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -918,7 +924,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -926,21 +932,21 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -959,10 +965,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -970,7 +976,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -981,7 +987,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -992,7 +998,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -1003,7 +1009,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
@@ -1014,7 +1020,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
@@ -1025,7 +1031,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -1047,7 +1053,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -1058,7 +1064,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
@@ -1069,10 +1075,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -1080,35 +1086,35 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
         <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1127,10 +1133,10 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1146,18 +1152,18 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
@@ -1168,7 +1174,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
         <v>17</v>
@@ -1179,18 +1185,18 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
@@ -1201,18 +1207,18 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
@@ -1223,7 +1229,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
@@ -1234,18 +1240,18 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
@@ -1256,10 +1262,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
@@ -1267,18 +1273,18 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
         <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
@@ -1289,29 +1295,29 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
@@ -1322,10 +1328,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -1333,7 +1339,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1344,18 +1350,18 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
         <v>17</v>
@@ -1366,18 +1372,18 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -1399,7 +1405,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
         <v>17</v>
@@ -1410,29 +1416,29 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
         <v>17</v>
@@ -1443,43 +1449,43 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
@@ -1487,7 +1493,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
         <v>17</v>
@@ -1498,18 +1504,18 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -1520,7 +1526,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -1531,7 +1537,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
         <v>23</v>
@@ -1553,18 +1559,18 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B76" t="s">
         <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
         <v>13</v>
@@ -1575,21 +1581,21 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
@@ -1597,10 +1603,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C80" t="s">
         <v>17</v>
@@ -1608,10 +1614,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C81" t="s">
         <v>17</v>
@@ -1619,51 +1625,51 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C83" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B85" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -1674,10 +1680,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C87" t="s">
         <v>23</v>
@@ -1685,7 +1691,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B88" t="s">
         <v>13</v>
@@ -1707,7 +1713,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -1718,21 +1724,21 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B91" t="s">
         <v>23</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
@@ -1740,62 +1746,62 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B94" t="s">
         <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C96" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -1806,21 +1812,21 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C99" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C100" t="s">
         <v>17</v>
@@ -1828,43 +1834,43 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C101" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C104" t="s">
         <v>17</v>
@@ -1872,32 +1878,32 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C105" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B106" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B107" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C107" t="s">
         <v>17</v>
@@ -1905,7 +1911,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
@@ -1916,18 +1922,18 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B109" t="s">
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B110" t="s">
         <v>4</v>
